--- a/biology/Zoologie/Ambystoma_tigrinum/Ambystoma_tigrinum.xlsx
+++ b/biology/Zoologie/Ambystoma_tigrinum/Ambystoma_tigrinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma tigrinum, Salamandre tigrée ou Amblystome tigré, est une espèce d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma tigrinum, Salamandre tigrée ou Amblystome tigré, est une espèce d'urodèles de la famille des Ambystomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le centre-sud du Canada et aux États-Unis[1] jusqu'à 3 600 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le centre-sud du Canada et aux États-Unis jusqu'à 3 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'animal peut faire de 20 à 25 cm, les mâles étant en général plus grands que les femelles. Ils peuvent vivre 20 ans.
 On pensait autrefois qu'il s'agissait de la forme adulte, nommée amblystome, de l'Axolotl (Ambystoma mexicanum). Ambystoma tigrinum est un animal offrant une étonnante variété d'apparence. On parle parfois, afin de résoudre les conflits, de « complexe » Ambystoma tigrinum, le terme complexe signifiant ici qu'on est en présence d'un groupe (un complexe) d'espèces et/ou de sous-espèces très proches et totalement ou largement interfécondes.
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Green, 1825 : Description of a new species of salamander. Journal of the Academy of Natural Sciences of Philadelphia, vol. 5, p. 116–118 (texte intégral).</t>
         </is>
